--- a/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_01_end.xlsx
+++ b/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_01_end.xlsx
@@ -428,7 +428,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="So that’s what happened…",values="1")]
+    <t xml:space="preserve">[Decision(options="So that's what happened...",values="1")]
 </t>
   </si>
   <si>
@@ -452,7 +452,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="Regardless, what’s important is that everyone is safe.",values="1")]
+    <t xml:space="preserve">[Decision(options="Regardless, what's important is that everyone is safe.",values="1")]
 </t>
   </si>
   <si>
@@ -460,11 +460,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ceylon"]   My name is Ceylon Doykos, and I’m a graduate of Victoria National University as well an Originium researcher. I'm also the daughter of this city's mayor.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="The mayor’s daughter?!",values="1")]
+    <t xml:space="preserve">[name="Ceylon"]   My name is Ceylon Doykos, and I'm a graduate of Victoria National University as well an Originium researcher. I'm also the daughter of this city's mayor.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="The mayor's daughter?!",values="1")]
 </t>
   </si>
   <si>
@@ -600,7 +600,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="The volcano’s going to erupt?!;Are you kidding?!",values="1;2")]
+    <t xml:space="preserve">[Decision(options="The volcano's going to erupt?!;Are you kidding?!",values="1;2")]
 </t>
   </si>
   <si>
